--- a/Projects/euribor_curve.xlsx
+++ b/Projects/euribor_curve.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\shared\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF262498-74E8-4F8C-BDF6-0DB93DDF14A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5707616A-CF55-4621-B521-D9048C9DC4D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12150" yWindow="-12525" windowWidth="21210" windowHeight="12375" activeTab="2" xr2:uid="{0A8E32F3-0BB1-4D11-836C-DFB303D664FC}"/>
+    <workbookView xWindow="12150" yWindow="-12525" windowWidth="21210" windowHeight="12375" activeTab="3" xr2:uid="{0A8E32F3-0BB1-4D11-836C-DFB303D664FC}"/>
   </bookViews>
   <sheets>
     <sheet name="EURIBOR1M" sheetId="1" r:id="rId1"/>
@@ -402,7 +402,7 @@
   <dimension ref="A1:H62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:I31"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -427,6 +427,10 @@
       </c>
       <c r="B2" s="2">
         <v>0.84499999999999997</v>
+      </c>
+      <c r="D2">
+        <f>B2*0.01</f>
+        <v>8.4499999999999992E-3</v>
       </c>
       <c r="E2" s="2"/>
       <c r="H2" s="2"/>
@@ -1116,7 +1120,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A3EDD39-2C7F-4738-8B2A-88A87760AD8A}">
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
@@ -1379,8 +1383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82ED2370-4EB7-4FE1-9F0B-07D3FE337809}">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1398,7 +1402,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4.6059999999999997E-2</v>
+        <v>4.6059999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1406,7 +1410,7 @@
         <v>12</v>
       </c>
       <c r="B3">
-        <v>5.1060000000000001E-2</v>
+        <v>5.1059999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1414,7 +1418,7 @@
         <v>24</v>
       </c>
       <c r="B4">
-        <v>4.7530000000000003E-2</v>
+        <v>4.7530000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1422,7 +1426,7 @@
         <v>36</v>
       </c>
       <c r="B5">
-        <v>4.4040000000000003E-2</v>
+        <v>4.4039999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1430,7 +1434,7 @@
         <v>48</v>
       </c>
       <c r="B6">
-        <v>4.1919999999999999E-2</v>
+        <v>4.1920000000000002</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1438,7 +1442,7 @@
         <v>60</v>
       </c>
       <c r="B7">
-        <v>4.0550000000000003E-2</v>
+        <v>4.0550000000000006</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -1446,7 +1450,7 @@
         <v>72</v>
       </c>
       <c r="B8">
-        <v>3.9699999999999999E-2</v>
+        <v>3.9699999999999998</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -1454,7 +1458,7 @@
         <v>84</v>
       </c>
       <c r="B9">
-        <v>3.9149999999999997E-2</v>
+        <v>3.9149999999999996</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -1462,7 +1466,7 @@
         <v>96</v>
       </c>
       <c r="B10">
-        <v>3.8800000000000001E-2</v>
+        <v>3.88</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -1470,7 +1474,7 @@
         <v>108</v>
       </c>
       <c r="B11">
-        <v>3.8609999999999998E-2</v>
+        <v>3.8609999999999998</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -1478,7 +1482,7 @@
         <v>120</v>
       </c>
       <c r="B12">
-        <v>3.8550000000000001E-2</v>
+        <v>3.855</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -1486,7 +1490,7 @@
         <v>144</v>
       </c>
       <c r="B13">
-        <v>3.8559999999999997E-2</v>
+        <v>3.8559999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -1494,7 +1498,7 @@
         <v>180</v>
       </c>
       <c r="B14">
-        <v>3.8800000000000001E-2</v>
+        <v>3.88</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -1502,7 +1506,7 @@
         <v>216</v>
       </c>
       <c r="B15">
-        <v>4.9540000000000001E-2</v>
+        <v>4.9539999999999997</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -1510,7 +1514,7 @@
         <v>240</v>
       </c>
       <c r="B16">
-        <v>3.8260000000000002E-2</v>
+        <v>3.8260000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -1518,7 +1522,7 @@
         <v>300</v>
       </c>
       <c r="B17">
-        <v>3.7060000000000003E-2</v>
+        <v>3.7060000000000004</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -1526,7 +1530,7 @@
         <v>360</v>
       </c>
       <c r="B18">
-        <v>3.5909999999999997E-2</v>
+        <v>3.5909999999999997</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/euribor_curve.xlsx
+++ b/Projects/euribor_curve.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\shared\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5707616A-CF55-4621-B521-D9048C9DC4D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C653179-ED6B-4220-8FA1-3A272310D46D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12150" yWindow="-12525" windowWidth="21210" windowHeight="12375" activeTab="3" xr2:uid="{0A8E32F3-0BB1-4D11-836C-DFB303D664FC}"/>
+    <workbookView xWindow="11925" yWindow="-13260" windowWidth="21210" windowHeight="12375" xr2:uid="{0A8E32F3-0BB1-4D11-836C-DFB303D664FC}"/>
   </bookViews>
   <sheets>
     <sheet name="EURIBOR1M" sheetId="1" r:id="rId1"/>
@@ -401,8 +401,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40871FD5-04CD-4084-8D77-0E766A3672EA}">
   <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -427,10 +427,6 @@
       </c>
       <c r="B2" s="2">
         <v>0.84499999999999997</v>
-      </c>
-      <c r="D2">
-        <f>B2*0.01</f>
-        <v>8.4499999999999992E-3</v>
       </c>
       <c r="E2" s="2"/>
       <c r="H2" s="2"/>
@@ -1383,7 +1379,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82ED2370-4EB7-4FE1-9F0B-07D3FE337809}">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
